--- a/GUI + Reviews/202512/US_CA 200.xlsx
+++ b/GUI + Reviews/202512/US_CA 200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3AB8D04-4268-4DAD-B509-05F596851E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2A0703-BB5A-4E3B-9384-2C9FD03ED414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{822CA3BA-15B1-4B11-877E-9145429D80A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{6CA8B52C-1ED0-49A8-BE6D-3C12667C704B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2116,18 +2116,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3762975C-098C-4B0D-95A0-C74E19CEDB85}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:I201" xr:uid="{3762975C-098C-4B0D-95A0-C74E19CEDB85}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E9B0983-D53B-4DBB-9928-582E5389D047}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I201" xr:uid="{7E9B0983-D53B-4DBB-9928-582E5389D047}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1685458E-41D3-49D5-890B-41C139617306}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{81DFFDFB-F24F-48F4-90B6-EBC8DD17A74F}" name="Ticker" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B9547998-9FAD-490F-B2B0-13F493598457}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{3AA22C9D-65EE-4743-84CA-8E75B64CB6E7}" name="ISIN" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{45C2F99F-57AB-417D-8F05-25A644EDE5C9}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9E736AA4-903B-4F8F-BB68-1005474C4FC6}" name="NOSH" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B5F65CF1-BAB9-4726-9F51-1A11313ECD74}" name="Price (EUR) " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5C91D600-DB0B-4771-BB88-902CE8EED188}" name="Currency (Local)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D865C340-4397-4E2A-8745-014C94944D9E}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1E504EFF-8EED-48A2-955E-2018E0F0064B}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{9402F034-CCA0-4729-91F1-6CE2713B3D4E}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3223C7F5-410A-4F6E-A0E7-444627CD7081}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E3CD7C04-1493-4BFB-BCB1-25C8556D7FD3}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B327D7CD-0823-4338-97A3-EE17F204570D}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{80E03A8B-D340-4838-A452-3362348266FC}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7CE309A4-C0FC-463E-8D1D-330373D40BB7}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5259F6DA-B69B-468B-965A-342BD2A264D7}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{690CA8D3-D921-42EE-973F-EF447846A4CF}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,25 +2449,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDEA254-ACB3-499B-B56B-78D19BD58787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4248663-A24F-44BE-9E20-453BB38895BA}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>28790972686.376301</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>11091645403.139799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>8970907302.3318596</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>8530813649.4829397</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>6233551519.6258097</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>5974275555.3727398</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>30380210894.993099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>8828046526.67593</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>2831406071.1052399</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1593311645.67646</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>2221825836.2764001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>2071482730.64047</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2998824157.8000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1953835973.43735</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>1602281321.97505</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1296029926.4927299</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1358251495.41979</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>3714170681.8699899</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>1123397992.5955801</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1943557252.68624</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1597907003.8002701</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>8811989267.4343204</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>1138588758.30459</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>1207953883.4447999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>6571297348.7723703</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>1038029068.44865</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>1100207642.73469</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>1194861631.25879</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>1215390744.28791</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>3607785316.7508702</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>1111929446.7125399</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1126245826.61726</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>958315199.02935302</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>758654531.02528</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>753855444.57583594</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>1123102677.7570801</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>835800199.28254902</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>926276309.84205306</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>2626583213.2946901</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>1330644907.68501</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>621834195.33440304</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>734030803.30342102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>998411678.13128304</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>916166184.03912699</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>1889576034.6879201</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>459519306.072707</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>1030971799.8497601</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>931687728.44801295</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>861295712.153813</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>914544983.91471803</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>1066354345.63709</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>931836602.94495702</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>766224507.07708299</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>994979972.37537599</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>1001881666.89406</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1201903410.85798</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>1073816576.6651199</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1236925385.89325</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>1543245900.2807801</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>727992924.31314099</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>832186810.81679296</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>1342154806.3585601</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>610047300.65650594</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>2241404470.2823701</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>674311998.562832</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>724847388.14955902</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>759358378.96575499</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>2510942269.4503498</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>662396870.33611202</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>758007438.17277598</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>963815220.023597</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1114553334.63094</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1339021101.27986</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>614351124.52312696</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>940897862.66818404</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>1170808798.82604</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>823730038.00112796</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>685475732.33591104</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>1122937018.7590799</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>478205291.01232898</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>427611671.77747798</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>419119389.84585601</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>1468575678.1645801</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>1400159789.18118</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>700221822.66907895</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>726028032.79715204</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>704407735.61756694</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>573019449.507725</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>583477756.23890603</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>587897877.55670202</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>810444962.68604195</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>1026600539.13451</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>1316185482.0861299</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>792204180.26962101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1177530384.2667501</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>443872703.136415</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>416812797.38719499</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>737277623.11513698</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>478917675.015064</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>92784274.342140093</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>635465449.50944197</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>657141229.60708797</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>513625825.19436902</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>644926262.002774</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>427488200.05592102</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>531386762.09587097</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>849984963.62287295</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>576746059.24361205</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>323856184.835706</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>477120856.79157299</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>757354998.03172302</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>551931238.325773</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>816862888.13409698</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>521624124.365915</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>408913477.11306399</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>463681901.93255901</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>827794300.17023098</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>357579701.40827101</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>608086092.25450099</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>350365088.20213801</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>602903887.05073905</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>489677815.980775</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>467443183.38822401</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>445539689.054959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>470739997.12236601</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>347767050.60485601</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>264350869.336427</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>332497663.61851197</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>444962672.18590999</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>2647855700.2727199</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>488882341.52262598</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>572365106.67628396</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>231703319.686894</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>523768746.509902</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>67620080.985365704</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>415734980.63702703</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>107425979.296372</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>374728575.614501</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>375980182.60327399</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>921199519.822662</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>591391079.12271798</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>214339319.32837099</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>822315138.89143801</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>365495483.20806402</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>303985622.35564297</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>538138394.68004596</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>967540480.38490295</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>343920852.95785803</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>413424764.98670202</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>514539576.19936901</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>399738142.06055701</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>318425028.256203</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>438852935.37874502</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>437505856.95391297</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>501977046.305255</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>357147894.04621702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>392746630.59628201</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>768598950.675578</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>342174076.44397801</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>552899587.41305804</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>240057322.70190099</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>622278204.32802606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>378295224.15305698</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>308228225.25120401</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>128384121.911961</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>354382562.20159203</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>602439858.89586699</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>404947373.86471498</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>382911046.18097001</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>324652320.505566</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>261508621.200129</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>1354635370.10324</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>516864467.30406898</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>420688849.68353802</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>279949109.68524098</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>434095650.95682597</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>305728690.249152</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>325748297.94035298</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>454415038.22718799</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>280894299.94267702</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>382722074.41347098</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>461868482.775855</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>417519140.43001699</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>424357749.32084399</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>108088778.385566</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>408205855.51266199</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>92315117.365998894</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>371332720.03312898</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>896105867.69057298</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>303982405.15621001</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>346880785.87790799</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>60506677.448501498</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>596486936.41696799</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>246226672.351753</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>470375806.55043799</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>447954431.61104602</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>665973587.58301699</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>319193455.97488701</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>207202843.12758401</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>200</v>
       </c>

--- a/GUI + Reviews/202512/US_CA 200.xlsx
+++ b/GUI + Reviews/202512/US_CA 200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B2A0703-BB5A-4E3B-9384-2C9FD03ED414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6AC404-3FB9-4F83-B008-D5F165D2AC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{6CA8B52C-1ED0-49A8-BE6D-3C12667C704B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{94067C88-3D14-43ED-917E-A17820256A53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="615">
   <si>
     <t>Rank</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>US9311421039</t>
+  </si>
+  <si>
+    <t>XNAS</t>
   </si>
   <si>
     <t>JPM-US</t>
@@ -2116,18 +2119,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E9B0983-D53B-4DBB-9928-582E5389D047}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:I201" xr:uid="{7E9B0983-D53B-4DBB-9928-582E5389D047}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0259A277-4980-4F33-9C21-8C2428CA1B0A}" name="Universe" displayName="Universe" ref="A1:I201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I201" xr:uid="{0259A277-4980-4F33-9C21-8C2428CA1B0A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1E504EFF-8EED-48A2-955E-2018E0F0064B}" name="Rank" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9402F034-CCA0-4729-91F1-6CE2713B3D4E}" name="Ticker" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3223C7F5-410A-4F6E-A0E7-444627CD7081}" name="Name" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E3CD7C04-1493-4BFB-BCB1-25C8556D7FD3}" name="ISIN" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{B327D7CD-0823-4338-97A3-EE17F204570D}" name="MIC" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{80E03A8B-D340-4838-A452-3362348266FC}" name="NOSH" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{7CE309A4-C0FC-463E-8D1D-330373D40BB7}" name="Price (EUR) " dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5259F6DA-B69B-468B-965A-342BD2A264D7}" name="Currency (Local)" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{690CA8D3-D921-42EE-973F-EF447846A4CF}" name="12 month aver. turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AE905052-9A93-440F-AD32-B8D740EEE03C}" name="Rank" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{0E438FAD-BE56-47E3-B104-ADA795326B4C}" name="Ticker" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{21638FD6-7E73-4681-9C1E-DB3D385DDA7A}" name="Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{F0251BBE-5B1F-4390-BA6C-2D0814D31365}" name="ISIN" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E252168C-4796-4764-B8A7-AB447F5FC998}" name="MIC" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3A19B1BE-5E32-40CE-BD3B-87DEEF943294}" name="NOSH" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{CF52DAC9-D32C-4C82-8D87-8EC17F545085}" name="Price (EUR) " dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{321A1395-166E-473C-9E69-7DE52523B8AB}" name="Currency (Local)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{19C7D437-3695-455E-9FD2-BA618D45F788}" name="12 month aver. turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2449,25 +2452,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4248663-A24F-44BE-9E20-453BB38895BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F88E2E4-DA63-4424-8FA7-F28227951C37}">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>28790972686.376301</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>11091645403.139799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>8970907302.3318596</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>8530813649.4829397</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>6233551519.6258097</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>5974275555.3727398</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>30380210894.993099</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2728,7 +2731,7 @@
         <v>8828046526.67593</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2757,7 +2760,7 @@
         <v>2831406071.1052399</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1">
         <v>7972851000</v>
@@ -2786,18 +2789,18 @@
         <v>1593311645.67646</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>38</v>
@@ -2815,18 +2818,18 @@
         <v>2221825836.2764001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>38</v>
@@ -2844,18 +2847,18 @@
         <v>2071482730.64047</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -2873,18 +2876,18 @@
         <v>2998824157.8000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
@@ -2902,18 +2905,18 @@
         <v>1953835973.43735</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
@@ -2931,18 +2934,18 @@
         <v>1602281321.97505</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>38</v>
@@ -2960,18 +2963,18 @@
         <v>1296029926.4927299</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>38</v>
@@ -2989,18 +2992,18 @@
         <v>1358251495.41979</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
@@ -3018,18 +3021,18 @@
         <v>3714170681.8699899</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
@@ -3047,18 +3050,18 @@
         <v>1123397992.5955801</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -3076,18 +3079,18 @@
         <v>1943557252.68624</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>38</v>
@@ -3105,18 +3108,18 @@
         <v>1597907003.8002701</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -3134,18 +3137,18 @@
         <v>8811989267.4343204</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>38</v>
@@ -3163,18 +3166,18 @@
         <v>1138588758.30459</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>38</v>
@@ -3192,18 +3195,18 @@
         <v>1207953883.4447999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -3221,18 +3224,18 @@
         <v>6571297348.7723703</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>38</v>
@@ -3250,18 +3253,18 @@
         <v>1038029068.44865</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>38</v>
@@ -3279,18 +3282,18 @@
         <v>1100207642.73469</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>38</v>
@@ -3308,18 +3311,18 @@
         <v>1194861631.25879</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -3337,18 +3340,18 @@
         <v>1215390744.28791</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>38</v>
@@ -3366,18 +3369,18 @@
         <v>3607785316.7508702</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>38</v>
@@ -3395,18 +3398,18 @@
         <v>1111929446.7125399</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>38</v>
@@ -3424,18 +3427,18 @@
         <v>1126245826.61726</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>38</v>
@@ -3453,18 +3456,18 @@
         <v>958315199.02935302</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>38</v>
@@ -3482,18 +3485,18 @@
         <v>758654531.02528</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>38</v>
@@ -3511,18 +3514,18 @@
         <v>753855444.57583594</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>38</v>
@@ -3540,18 +3543,18 @@
         <v>1123102677.7570801</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>38</v>
@@ -3569,18 +3572,18 @@
         <v>835800199.28254902</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>12</v>
@@ -3598,18 +3601,18 @@
         <v>926276309.84205306</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>12</v>
@@ -3627,18 +3630,18 @@
         <v>2626583213.2946901</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>38</v>
@@ -3656,18 +3659,18 @@
         <v>1330644907.68501</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>38</v>
@@ -3685,18 +3688,18 @@
         <v>621834195.33440304</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>38</v>
@@ -3714,18 +3717,18 @@
         <v>734030803.30342102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>38</v>
@@ -3743,18 +3746,18 @@
         <v>998411678.13128304</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>38</v>
@@ -3772,18 +3775,18 @@
         <v>916166184.03912699</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>38</v>
@@ -3801,21 +3804,21 @@
         <v>1889576034.6879201</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F47" s="1">
         <v>1404990100</v>
@@ -3824,24 +3827,24 @@
         <v>130.10849999999999</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I47" s="1">
         <v>459519306.072707</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3859,18 +3862,18 @@
         <v>1030971799.8497601</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>12</v>
@@ -3888,18 +3891,18 @@
         <v>931687728.44801295</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3917,18 +3920,18 @@
         <v>861295712.153813</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>38</v>
@@ -3946,18 +3949,18 @@
         <v>914544983.91471803</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>12</v>
@@ -3975,18 +3978,18 @@
         <v>1066354345.63709</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>38</v>
@@ -4004,18 +4007,18 @@
         <v>931836602.94495702</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
@@ -4033,18 +4036,18 @@
         <v>766224507.07708299</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>12</v>
@@ -4062,18 +4065,18 @@
         <v>994979972.37537599</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -4091,18 +4094,18 @@
         <v>1001881666.89406</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
@@ -4120,18 +4123,18 @@
         <v>1201903410.85798</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>38</v>
@@ -4149,18 +4152,18 @@
         <v>1073816576.6651199</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -4178,18 +4181,18 @@
         <v>1236925385.89325</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>38</v>
@@ -4207,18 +4210,18 @@
         <v>1543245900.2807801</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>38</v>
@@ -4236,18 +4239,18 @@
         <v>727992924.31314099</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>38</v>
@@ -4265,18 +4268,18 @@
         <v>832186810.81679296</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>38</v>
@@ -4294,18 +4297,18 @@
         <v>1342154806.3585601</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>38</v>
@@ -4323,18 +4326,18 @@
         <v>610047300.65650594</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>12</v>
@@ -4352,18 +4355,18 @@
         <v>2241404470.2823701</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>38</v>
@@ -4381,18 +4384,18 @@
         <v>674311998.562832</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>38</v>
@@ -4410,18 +4413,18 @@
         <v>724847388.14955902</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>38</v>
@@ -4439,18 +4442,18 @@
         <v>759358378.96575499</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
@@ -4468,18 +4471,18 @@
         <v>2510942269.4503498</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>38</v>
@@ -4497,18 +4500,18 @@
         <v>662396870.33611202</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>12</v>
@@ -4526,18 +4529,18 @@
         <v>758007438.17277598</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>38</v>
@@ -4555,18 +4558,18 @@
         <v>963815220.023597</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -4584,18 +4587,18 @@
         <v>1114553334.63094</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>38</v>
@@ -4613,18 +4616,18 @@
         <v>1339021101.27986</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>38</v>
@@ -4642,18 +4645,18 @@
         <v>614351124.52312696</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>38</v>
@@ -4671,18 +4674,18 @@
         <v>940897862.66818404</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
@@ -4700,18 +4703,18 @@
         <v>1170808798.82604</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>12</v>
@@ -4729,18 +4732,18 @@
         <v>823730038.00112796</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>38</v>
@@ -4758,18 +4761,18 @@
         <v>685475732.33591104</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>38</v>
@@ -4787,18 +4790,18 @@
         <v>1122937018.7590799</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>38</v>
@@ -4816,21 +4819,21 @@
         <v>478205291.01232898</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F82" s="1">
         <v>1707204000</v>
@@ -4839,24 +4842,24 @@
         <v>71.147880000000001</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I82" s="1">
         <v>427611671.77747798</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>38</v>
@@ -4874,18 +4877,18 @@
         <v>419119389.84585601</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>38</v>
@@ -4903,18 +4906,18 @@
         <v>1468575678.1645801</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
@@ -4932,18 +4935,18 @@
         <v>1400159789.18118</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>38</v>
@@ -4961,18 +4964,18 @@
         <v>700221822.66907895</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>38</v>
@@ -4990,18 +4993,18 @@
         <v>726028032.79715204</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>38</v>
@@ -5019,18 +5022,18 @@
         <v>704407735.61756694</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>38</v>
@@ -5048,18 +5051,18 @@
         <v>573019449.507725</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>38</v>
@@ -5077,18 +5080,18 @@
         <v>583477756.23890603</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>38</v>
@@ -5106,18 +5109,18 @@
         <v>587897877.55670202</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>38</v>
@@ -5135,18 +5138,18 @@
         <v>810444962.68604195</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
@@ -5164,18 +5167,18 @@
         <v>1026600539.13451</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>12</v>
@@ -5193,18 +5196,18 @@
         <v>1316185482.0861299</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>12</v>
@@ -5222,18 +5225,18 @@
         <v>792204180.26962101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>38</v>
@@ -5251,18 +5254,18 @@
         <v>1177530384.2667501</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>38</v>
@@ -5280,18 +5283,18 @@
         <v>443872703.136415</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>38</v>
@@ -5309,18 +5312,18 @@
         <v>416812797.38719499</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>12</v>
@@ -5338,18 +5341,18 @@
         <v>737277623.11513698</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>38</v>
@@ -5367,21 +5370,21 @@
         <v>478917675.015064</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F101" s="1">
         <v>2474952000</v>
@@ -5390,24 +5393,24 @@
         <v>38.777720000000002</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I101" s="1">
         <v>92784274.342140093</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>12</v>
@@ -5425,18 +5428,18 @@
         <v>635465449.50944197</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>38</v>
@@ -5454,18 +5457,18 @@
         <v>657141229.60708797</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>38</v>
@@ -5483,18 +5486,18 @@
         <v>513625825.19436902</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>38</v>
@@ -5512,18 +5515,18 @@
         <v>644926262.002774</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>38</v>
@@ -5541,18 +5544,18 @@
         <v>427488200.05592102</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>38</v>
@@ -5570,18 +5573,18 @@
         <v>531386762.09587097</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>12</v>
@@ -5599,18 +5602,18 @@
         <v>849984963.62287295</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>38</v>
@@ -5628,21 +5631,21 @@
         <v>576746059.24361205</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F110" s="1">
         <v>2181275600</v>
@@ -5651,24 +5654,24 @@
         <v>41.609110000000001</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I110" s="1">
         <v>323856184.835706</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>12</v>
@@ -5686,18 +5689,18 @@
         <v>477120856.79157299</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>12</v>
@@ -5715,18 +5718,18 @@
         <v>757354998.03172302</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>38</v>
@@ -5744,18 +5747,18 @@
         <v>551931238.325773</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>12</v>
@@ -5773,18 +5776,18 @@
         <v>816862888.13409698</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
@@ -5802,18 +5805,18 @@
         <v>521624124.365915</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>38</v>
@@ -5831,18 +5834,18 @@
         <v>408913477.11306399</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>38</v>
@@ -5860,18 +5863,18 @@
         <v>463681901.93255901</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>12</v>
@@ -5889,18 +5892,18 @@
         <v>827794300.17023098</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>38</v>
@@ -5918,18 +5921,18 @@
         <v>357579701.40827101</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>38</v>
@@ -5947,18 +5950,18 @@
         <v>608086092.25450099</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>38</v>
@@ -5976,18 +5979,18 @@
         <v>350365088.20213801</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>38</v>
@@ -6005,18 +6008,18 @@
         <v>602903887.05073905</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>38</v>
@@ -6034,18 +6037,18 @@
         <v>489677815.980775</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>38</v>
@@ -6063,18 +6066,18 @@
         <v>467443183.38822401</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>38</v>
@@ -6092,18 +6095,18 @@
         <v>445539689.054959</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>38</v>
@@ -6121,18 +6124,18 @@
         <v>470739997.12236601</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>38</v>
@@ -6150,21 +6153,21 @@
         <v>347767050.60485601</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F128" s="1">
         <v>716360530</v>
@@ -6173,24 +6176,24 @@
         <v>105.0322</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I128" s="1">
         <v>264350869.336427</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>38</v>
@@ -6208,18 +6211,18 @@
         <v>332497663.61851197</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>12</v>
@@ -6237,18 +6240,18 @@
         <v>444962672.18590999</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>12</v>
@@ -6266,18 +6269,18 @@
         <v>2647855700.2727199</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>38</v>
@@ -6295,18 +6298,18 @@
         <v>488882341.52262598</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>38</v>
@@ -6324,21 +6327,21 @@
         <v>572365106.67628396</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F134" s="1">
         <v>1242460300</v>
@@ -6347,24 +6350,24 @@
         <v>57.858820000000001</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I134" s="1">
         <v>231703319.686894</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>12</v>
@@ -6382,21 +6385,21 @@
         <v>523768746.509902</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F136" s="1">
         <v>1610718600</v>
@@ -6405,24 +6408,24 @@
         <v>43.775739999999999</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I136" s="1">
         <v>67620080.985365704</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>38</v>
@@ -6440,21 +6443,21 @@
         <v>415734980.63702703</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F138" s="1">
         <v>502046570</v>
@@ -6463,24 +6466,24 @@
         <v>138.81190000000001</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I138" s="1">
         <v>107425979.296372</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>12</v>
@@ -6498,18 +6501,18 @@
         <v>374728575.614501</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>38</v>
@@ -6527,18 +6530,18 @@
         <v>375980182.60327399</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>38</v>
@@ -6556,18 +6559,18 @@
         <v>921199519.822662</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>12</v>
@@ -6585,21 +6588,21 @@
         <v>591391079.12271798</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F143" s="1">
         <v>929451000</v>
@@ -6608,24 +6611,24 @@
         <v>72.908259999999999</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I143" s="1">
         <v>214339319.32837099</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>12</v>
@@ -6643,18 +6646,18 @@
         <v>822315138.89143801</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>38</v>
@@ -6672,18 +6675,18 @@
         <v>365495483.20806402</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>38</v>
@@ -6701,18 +6704,18 @@
         <v>303985622.35564297</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>38</v>
@@ -6730,18 +6733,18 @@
         <v>538138394.68004596</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>38</v>
@@ -6759,18 +6762,18 @@
         <v>967540480.38490295</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>12</v>
@@ -6788,18 +6791,18 @@
         <v>343920852.95785803</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>38</v>
@@ -6817,18 +6820,18 @@
         <v>413424764.98670202</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>38</v>
@@ -6846,18 +6849,18 @@
         <v>514539576.19936901</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>38</v>
@@ -6875,18 +6878,18 @@
         <v>399738142.06055701</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>38</v>
@@ -6904,18 +6907,18 @@
         <v>318425028.256203</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>12</v>
@@ -6933,18 +6936,18 @@
         <v>438852935.37874502</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>38</v>
@@ -6962,18 +6965,18 @@
         <v>437505856.95391297</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>12</v>
@@ -6991,18 +6994,18 @@
         <v>501977046.305255</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>38</v>
@@ -7020,18 +7023,18 @@
         <v>357147894.04621702</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>38</v>
@@ -7049,18 +7052,18 @@
         <v>392746630.59628201</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>12</v>
@@ -7078,18 +7081,18 @@
         <v>768598950.675578</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>38</v>
@@ -7107,18 +7110,18 @@
         <v>342174076.44397801</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>38</v>
@@ -7136,18 +7139,18 @@
         <v>552899587.41305804</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>38</v>
@@ -7165,18 +7168,18 @@
         <v>240057322.70190099</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>38</v>
@@ -7194,18 +7197,18 @@
         <v>622278204.32802606</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>38</v>
@@ -7223,18 +7226,18 @@
         <v>378295224.15305698</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>12</v>
@@ -7252,18 +7255,18 @@
         <v>308228225.25120401</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>38</v>
@@ -7281,18 +7284,18 @@
         <v>128384121.911961</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>38</v>
@@ -7310,18 +7313,18 @@
         <v>354382562.20159203</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>38</v>
@@ -7339,21 +7342,21 @@
         <v>602439858.89586699</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F169" s="1">
         <v>2083107000</v>
@@ -7362,24 +7365,24 @@
         <v>28.997119999999999</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I169" s="1">
         <v>404947373.86471498</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>38</v>
@@ -7397,18 +7400,18 @@
         <v>382911046.18097001</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>38</v>
@@ -7426,18 +7429,18 @@
         <v>324652320.505566</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>38</v>
@@ -7455,18 +7458,18 @@
         <v>261508621.200129</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>12</v>
@@ -7484,18 +7487,18 @@
         <v>1354635370.10324</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>38</v>
@@ -7513,18 +7516,18 @@
         <v>516864467.30406898</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>38</v>
@@ -7542,18 +7545,18 @@
         <v>420688849.68353802</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>38</v>
@@ -7571,18 +7574,18 @@
         <v>279949109.68524098</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>38</v>
@@ -7600,18 +7603,18 @@
         <v>434095650.95682597</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>38</v>
@@ -7629,18 +7632,18 @@
         <v>305728690.249152</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>12</v>
@@ -7658,18 +7661,18 @@
         <v>325748297.94035298</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>38</v>
@@ -7687,18 +7690,18 @@
         <v>454415038.22718799</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>38</v>
@@ -7716,18 +7719,18 @@
         <v>280894299.94267702</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>38</v>
@@ -7745,18 +7748,18 @@
         <v>382722074.41347098</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>12</v>
@@ -7774,18 +7777,18 @@
         <v>461868482.775855</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>38</v>
@@ -7803,18 +7806,18 @@
         <v>417519140.43001699</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>38</v>
@@ -7832,21 +7835,21 @@
         <v>424357749.32084399</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F186" s="1">
         <v>900831240</v>
@@ -7855,24 +7858,24 @@
         <v>60.714829999999999</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I186" s="1">
         <v>108088778.385566</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>12</v>
@@ -7890,21 +7893,21 @@
         <v>408205855.51266199</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F188" s="1">
         <v>1687434000</v>
@@ -7913,24 +7916,24 @@
         <v>31.71771</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I188" s="1">
         <v>92315117.365998894</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>38</v>
@@ -7948,18 +7951,18 @@
         <v>371332720.03312898</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>38</v>
@@ -7977,18 +7980,18 @@
         <v>896105867.69057298</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>38</v>
@@ -8006,18 +8009,18 @@
         <v>303982405.15621001</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>38</v>
@@ -8035,21 +8038,21 @@
         <v>346880785.87790799</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F193" s="1">
         <v>444842500</v>
@@ -8058,24 +8061,24 @@
         <v>117.2441</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I193" s="1">
         <v>60506677.448501498</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>38</v>
@@ -8093,18 +8096,18 @@
         <v>596486936.41696799</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>38</v>
@@ -8122,18 +8125,18 @@
         <v>246226672.351753</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>38</v>
@@ -8151,18 +8154,18 @@
         <v>470375806.55043799</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>12</v>
@@ -8180,18 +8183,18 @@
         <v>447954431.61104602</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>38</v>
@@ -8209,18 +8212,18 @@
         <v>665973587.58301699</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>38</v>
@@ -8238,18 +8241,18 @@
         <v>319193455.97488701</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>38</v>
@@ -8267,21 +8270,21 @@
         <v>207202843.12758401</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F201" s="1">
         <v>1684986800</v>
@@ -8290,7 +8293,7 @@
         <v>29.951170000000001</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I201" s="1">
         <v>196466606.80132201</v>
